--- a/out/RMRP_2021_AI_consolidated.xlsx
+++ b/out/RMRP_2021_AI_consolidated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,16 +436,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>3266</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>2777</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,16 +454,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1465</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="K2">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -478,16 +481,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>15745</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>14938</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -496,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>2769</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>2670</v>
       </c>
       <c r="K3">
-        <v>49</v>
+        <v>5160</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>5146</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>10828</v>
       </c>
     </row>
     <row r="4">
@@ -523,16 +526,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>10964</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>7039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -541,16 +544,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>736</v>
       </c>
       <c r="K4">
-        <v>44</v>
+        <v>5946</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>3267</v>
+      </c>
+      <c r="M4">
+        <v>723</v>
       </c>
     </row>
     <row r="5">
@@ -561,14 +567,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>Humanitarian Transportation</t>
         </is>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -583,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -603,20 +609,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multipurpose CBI</t>
+          <t>Integration</t>
         </is>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>1767</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>1258</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -625,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>44</v>
+        <v>1232</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>535</v>
       </c>
       <c r="M6">
-        <v>93</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7">
@@ -648,20 +654,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Protection (General)</t>
+          <t>Multipurpose CBI</t>
         </is>
       </c>
       <c r="C7">
-        <v>462</v>
+        <v>11275</v>
       </c>
       <c r="D7">
-        <v>451</v>
+        <v>10736</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>539</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -670,16 +676,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2584</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2583</v>
       </c>
       <c r="K7">
-        <v>275</v>
+        <v>4001</v>
       </c>
       <c r="L7">
-        <v>187</v>
+        <v>2107</v>
+      </c>
+      <c r="M7">
+        <v>11275</v>
       </c>
     </row>
     <row r="8">
@@ -690,14 +699,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shelter</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -712,19 +721,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -735,20 +741,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WASH</t>
+          <t>Protection (Child Protection)</t>
         </is>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>3708</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>3658</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -757,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2090</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>1911</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -777,20 +783,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Protection (GBV)</t>
         </is>
       </c>
       <c r="C10">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>827</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -799,34 +805,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Protection (General)</t>
         </is>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>19907</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>19907</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -841,40 +847,43 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2096</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="K11">
-        <v>35</v>
+        <v>10063</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>5658</v>
+      </c>
+      <c r="M11">
+        <v>280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Food Security</t>
+          <t>Shelter</t>
         </is>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>8178</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>8148</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -883,43 +892,43 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>1472</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>1479</v>
       </c>
       <c r="K12">
-        <v>31</v>
+        <v>2348</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>2879</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>WASH</t>
         </is>
       </c>
       <c r="C13">
-        <v>771</v>
+        <v>4551</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>4447</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -928,40 +937,43 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>486</v>
       </c>
       <c r="K13">
-        <v>456</v>
+        <v>1608</v>
       </c>
       <c r="L13">
-        <v>311</v>
+        <v>1970</v>
+      </c>
+      <c r="M13">
+        <v>295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>79982</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>73236</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6453</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -970,16 +982,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>14009</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>13422</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>30545</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>22006</v>
       </c>
     </row>
     <row r="15">
@@ -990,20 +1002,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multipurpose CBI</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C15">
-        <v>161</v>
+        <v>2289</v>
       </c>
       <c r="D15">
-        <v>161</v>
+        <v>2288</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1012,19 +1024,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28</v>
+        <v>919</v>
       </c>
       <c r="J15">
-        <v>29</v>
+        <v>940</v>
       </c>
       <c r="K15">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="L15">
-        <v>37</v>
-      </c>
-      <c r="M15">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1035,20 +1044,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Protection (General)</t>
+          <t>Food Security</t>
         </is>
       </c>
       <c r="C16">
-        <v>504</v>
+        <v>16190</v>
       </c>
       <c r="D16">
-        <v>504</v>
+        <v>16051</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1057,16 +1066,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>2887</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3134</v>
       </c>
       <c r="K16">
-        <v>304</v>
+        <v>4925</v>
       </c>
       <c r="L16">
-        <v>196</v>
+        <v>5244</v>
+      </c>
+      <c r="M16">
+        <v>11979</v>
       </c>
     </row>
     <row r="17">
@@ -1077,20 +1089,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shelter</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>10057</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>8358</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1699</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1099,16 +1111,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>975</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>879</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>5110</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3055</v>
+      </c>
+      <c r="M17">
+        <v>1063</v>
       </c>
     </row>
     <row r="18">
@@ -1119,14 +1134,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WASH</t>
+          <t>Humanitarian Transportation</t>
         </is>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>463</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>463</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1141,16 +1156,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="J18">
+        <v>81</v>
+      </c>
+      <c r="K18">
+        <v>178</v>
+      </c>
+      <c r="L18">
+        <v>122</v>
+      </c>
+      <c r="M18">
         <v>5</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1161,20 +1179,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Integration</t>
         </is>
       </c>
       <c r="C19">
-        <v>1636</v>
+        <v>1724</v>
       </c>
       <c r="D19">
-        <v>864</v>
+        <v>1566</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1183,40 +1201,43 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>931</v>
+        <v>1098</v>
       </c>
       <c r="L19">
-        <v>599</v>
+        <v>626</v>
+      </c>
+      <c r="M19">
+        <v>958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Multipurpose CBI</t>
         </is>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>11749</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>11497</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1225,40 +1246,43 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2694</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2839</v>
       </c>
       <c r="K20">
-        <v>44</v>
+        <v>4110</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>2106</v>
+      </c>
+      <c r="M20">
+        <v>11749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Food Security</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="C21">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1267,43 +1291,40 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>37</v>
-      </c>
-      <c r="M21">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Protection (Child Protection)</t>
         </is>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>2915</v>
       </c>
       <c r="D22">
-        <v>59</v>
+        <v>2785</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1312,34 +1333,34 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1679</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="K22">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>Protection (GBV)</t>
         </is>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1360,28 +1381,28 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Multipurpose CBI</t>
+          <t>Protection (General)</t>
         </is>
       </c>
       <c r="C24">
-        <v>124</v>
+        <v>18530</v>
       </c>
       <c r="D24">
-        <v>124</v>
+        <v>18530</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1396,37 +1417,37 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>1934</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>1861</v>
       </c>
       <c r="K24">
-        <v>44</v>
+        <v>9276</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>5391</v>
       </c>
       <c r="M24">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Protection (GBV)</t>
+          <t>Protection (Human Trafficking &amp; Smuggling)</t>
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1447,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1456,25 +1477,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Protection (General)</t>
+          <t>Shelter</t>
         </is>
       </c>
       <c r="C26">
-        <v>299</v>
+        <v>7608</v>
       </c>
       <c r="D26">
-        <v>299</v>
+        <v>7583</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1483,43 +1504,43 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1512</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>1659</v>
       </c>
       <c r="K26">
-        <v>186</v>
+        <v>2154</v>
       </c>
       <c r="L26">
-        <v>110</v>
+        <v>2281</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Shelter</t>
+          <t>WASH</t>
         </is>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>5677</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>5598</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1528,40 +1549,43 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2050</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>2502</v>
+      </c>
+      <c r="M27">
+        <v>907</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WASH</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>77425</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>74728</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1570,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>13229</v>
       </c>
       <c r="J28">
-        <v>13</v>
+        <v>13523</v>
       </c>
       <c r="K28">
-        <v>13</v>
+        <v>29268</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>21405</v>
       </c>
     </row>
     <row r="29">
@@ -1590,38 +1614,512 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>306</v>
+      </c>
+      <c r="D29">
+        <v>161</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>145</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>154</v>
+      </c>
+      <c r="J29">
+        <v>151</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>12752</v>
+      </c>
+      <c r="D30">
+        <v>12698</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>54</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2658</v>
+      </c>
+      <c r="J30">
+        <v>2632</v>
+      </c>
+      <c r="K30">
+        <v>3864</v>
+      </c>
+      <c r="L30">
+        <v>3598</v>
+      </c>
+      <c r="M30">
+        <v>12652</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>586</v>
+      </c>
+      <c r="D31">
+        <v>495</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>91</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>470</v>
+      </c>
+      <c r="L31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1690</v>
+      </c>
+      <c r="D32">
+        <v>1447</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>243</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1246</v>
+      </c>
+      <c r="L32">
+        <v>444</v>
+      </c>
+      <c r="M32">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>9769</v>
+      </c>
+      <c r="D33">
+        <v>9769</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2576</v>
+      </c>
+      <c r="J33">
+        <v>2502</v>
+      </c>
+      <c r="K33">
+        <v>3024</v>
+      </c>
+      <c r="L33">
+        <v>1667</v>
+      </c>
+      <c r="M33">
+        <v>9769</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Protection (Child Protection)</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>3718</v>
+      </c>
+      <c r="D34">
+        <v>3357</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>361</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1946</v>
+      </c>
+      <c r="J34">
+        <v>1772</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Protection (GBV)</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Protection (General)</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>16524</v>
+      </c>
+      <c r="D36">
+        <v>16524</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2336</v>
+      </c>
+      <c r="J36">
+        <v>2309</v>
+      </c>
+      <c r="K36">
+        <v>7656</v>
+      </c>
+      <c r="L36">
+        <v>4223</v>
+      </c>
+      <c r="M36">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Protection (Human Trafficking &amp; Smuggling)</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>3671</v>
+      </c>
+      <c r="D38">
+        <v>3670</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1569</v>
+      </c>
+      <c r="J38">
+        <v>1568</v>
+      </c>
+      <c r="K38">
+        <v>277</v>
+      </c>
+      <c r="L38">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>1037</v>
+      </c>
+      <c r="D39">
+        <v>1037</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>510</v>
+      </c>
+      <c r="L39">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="C29">
-        <v>765</v>
-      </c>
-      <c r="D29">
-        <v>765</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>49</v>
-      </c>
-      <c r="J29">
-        <v>63</v>
-      </c>
-      <c r="K29">
-        <v>402</v>
-      </c>
-      <c r="L29">
-        <v>251</v>
+      <c r="C40">
+        <v>50054</v>
+      </c>
+      <c r="D40">
+        <v>49159</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>895</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>11269</v>
+      </c>
+      <c r="J40">
+        <v>10966</v>
+      </c>
+      <c r="K40">
+        <v>17049</v>
+      </c>
+      <c r="L40">
+        <v>10770</v>
       </c>
     </row>
   </sheetData>

--- a/out/RMRP_2021_AI_consolidated.xlsx
+++ b/out/RMRP_2021_AI_consolidated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,269 +360,388 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reporting.Month</t>
+          <t>Platform</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sector...Subsector...WG</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.RMindestination</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.RM.in.transit</t>
+          <t>Subsector</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.Host.Community</t>
+          <t>Monthly_Beneficairies_Total</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.RM.Pendulars</t>
+          <t>Monthly_CVABeneficiaries_Total</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.Colombian.Returnees</t>
+          <t>Consolidated Beneficiaries Total</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.Women.under.18</t>
+          <t>Consolidated RyM In Destination</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.Men.under.18</t>
+          <t>Consolidated RyM In Transit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.Women.above.18</t>
+          <t>Consolidated Host Community</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Total.Monthly.Men.above.18</t>
+          <t>Consolidated Pendulars</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Total.CVA.beneficiaries</t>
+          <t>Consolidated Colombian Returnees</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidated Girls</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidated Boys</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidated Women</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidated Men</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidated CVA</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Check PopType Breakdown</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Check AGD Breakdown</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>3266</v>
-      </c>
-      <c r="D2">
-        <v>2777</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
       </c>
       <c r="F2">
-        <v>489</v>
+        <v>4551</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4551</v>
       </c>
       <c r="I2">
-        <v>1465</v>
+        <v>4447</v>
       </c>
       <c r="J2">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="L2">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>487</v>
+      </c>
+      <c r="O2">
+        <v>486</v>
+      </c>
+      <c r="P2">
+        <v>1608</v>
+      </c>
+      <c r="Q2">
+        <v>1970</v>
+      </c>
+      <c r="R2">
+        <v>295</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Food Security</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>15745</v>
-      </c>
-      <c r="D3">
-        <v>14938</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
       </c>
       <c r="F3">
-        <v>807</v>
+        <v>9008</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8178</v>
       </c>
       <c r="I3">
-        <v>2769</v>
+        <v>8148</v>
       </c>
       <c r="J3">
-        <v>2670</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5160</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>5146</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10828</v>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1472</v>
+      </c>
+      <c r="O3">
+        <v>1479</v>
+      </c>
+      <c r="P3">
+        <v>2348</v>
+      </c>
+      <c r="Q3">
+        <v>2879</v>
+      </c>
+      <c r="R3">
+        <v>147</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>10964</v>
-      </c>
-      <c r="D4">
-        <v>7039</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3925</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1015</v>
-      </c>
-      <c r="J4">
-        <v>736</v>
-      </c>
-      <c r="K4">
-        <v>5946</v>
-      </c>
-      <c r="L4">
-        <v>3267</v>
-      </c>
-      <c r="M4">
-        <v>723</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Protection (Human Trafficking &amp; Smuggling)</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Humanitarian Transportation</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>318</v>
-      </c>
-      <c r="D5">
-        <v>318</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Protection (General)</t>
+        </is>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>19907</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>19907</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>19907</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2096</v>
+      </c>
+      <c r="O5">
+        <v>2090</v>
+      </c>
+      <c r="P5">
+        <v>10063</v>
+      </c>
+      <c r="Q5">
+        <v>5658</v>
+      </c>
+      <c r="R5">
+        <v>280</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>1767</v>
-      </c>
-      <c r="D6">
-        <v>1258</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Protection (GBV)</t>
+        </is>
       </c>
       <c r="F6">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -637,91 +756,153 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>519</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Check Population Type breakdown</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multipurpose CBI</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>11275</v>
-      </c>
-      <c r="D7">
-        <v>10736</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protection (Child Protection)</t>
+        </is>
       </c>
       <c r="F7">
-        <v>539</v>
+        <v>3708</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3708</v>
       </c>
       <c r="I7">
-        <v>2584</v>
+        <v>3658</v>
       </c>
       <c r="J7">
-        <v>2583</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>4001</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>2107</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11275</v>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2090</v>
+      </c>
+      <c r="O7">
+        <v>1911</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -730,601 +911,955 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>10</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Protection (Child Protection)</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>3708</v>
-      </c>
-      <c r="D9">
-        <v>3658</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>2090</v>
-      </c>
-      <c r="J9">
-        <v>1911</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Multisector</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Multisector</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Protection (GBV)</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>12591</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>12591</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11275</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10736</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="L10">
         <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2584</v>
+      </c>
+      <c r="O10">
+        <v>2583</v>
+      </c>
+      <c r="P10">
+        <v>4001</v>
+      </c>
+      <c r="Q10">
+        <v>2107</v>
+      </c>
+      <c r="R10">
+        <v>11275</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Protection (General)</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>19907</v>
-      </c>
-      <c r="D11">
-        <v>19907</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="I11">
-        <v>2096</v>
+        <v>1258</v>
       </c>
       <c r="J11">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>10063</v>
+        <v>509</v>
       </c>
       <c r="L11">
-        <v>5658</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>280</v>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1232</v>
+      </c>
+      <c r="Q11">
+        <v>535</v>
+      </c>
+      <c r="R11">
+        <v>519</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shelter</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>8178</v>
-      </c>
-      <c r="D12">
-        <v>8148</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="I12">
-        <v>1472</v>
+        <v>318</v>
       </c>
       <c r="J12">
-        <v>1479</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2348</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2879</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>147</v>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>66</v>
+      </c>
+      <c r="P12">
+        <v>123</v>
+      </c>
+      <c r="Q12">
+        <v>98</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>4551</v>
-      </c>
-      <c r="D13">
-        <v>4447</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
       </c>
       <c r="F13">
-        <v>104</v>
+        <v>10964</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10964</v>
       </c>
       <c r="I13">
-        <v>487</v>
+        <v>7039</v>
       </c>
       <c r="J13">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1608</v>
+        <v>3925</v>
       </c>
       <c r="L13">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>295</v>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1015</v>
+      </c>
+      <c r="O13">
+        <v>736</v>
+      </c>
+      <c r="P13">
+        <v>5946</v>
+      </c>
+      <c r="Q13">
+        <v>3267</v>
+      </c>
+      <c r="R13">
+        <v>723</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>79982</v>
-      </c>
-      <c r="D14">
-        <v>73236</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
       </c>
       <c r="F14">
-        <v>6453</v>
+        <v>76504</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>71566</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15745</v>
       </c>
       <c r="I14">
-        <v>14009</v>
+        <v>14938</v>
       </c>
       <c r="J14">
-        <v>13422</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>30545</v>
+        <v>807</v>
       </c>
       <c r="L14">
-        <v>22006</v>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2769</v>
+      </c>
+      <c r="O14">
+        <v>2670</v>
+      </c>
+      <c r="P14">
+        <v>5160</v>
+      </c>
+      <c r="Q14">
+        <v>5146</v>
+      </c>
+      <c r="R14">
+        <v>10828</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Education</t>
         </is>
       </c>
-      <c r="C15">
-        <v>2289</v>
-      </c>
-      <c r="D15">
-        <v>2288</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3276</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3266</v>
       </c>
       <c r="I15">
-        <v>919</v>
+        <v>2777</v>
       </c>
       <c r="J15">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>352</v>
+        <v>489</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1465</v>
+      </c>
+      <c r="O15">
+        <v>1401</v>
+      </c>
+      <c r="P15">
+        <v>64</v>
+      </c>
+      <c r="Q15">
+        <v>336</v>
+      </c>
+      <c r="R15">
+        <v>18</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Food Security</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>16190</v>
-      </c>
-      <c r="D16">
-        <v>16051</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>139</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>2887</v>
-      </c>
-      <c r="J16">
-        <v>3134</v>
-      </c>
-      <c r="K16">
-        <v>4925</v>
-      </c>
-      <c r="L16">
-        <v>5244</v>
-      </c>
-      <c r="M16">
-        <v>11979</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common Services</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Common Services</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>10057</v>
-      </c>
-      <c r="D17">
-        <v>8358</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Country level</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
       </c>
       <c r="F17">
-        <v>1699</v>
+        <v>142604</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>86139</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>62924</v>
       </c>
       <c r="I17">
-        <v>975</v>
+        <v>56655</v>
       </c>
       <c r="J17">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5110</v>
+        <v>6269</v>
       </c>
       <c r="L17">
-        <v>3055</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1063</v>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9929</v>
+      </c>
+      <c r="O17">
+        <v>9480</v>
+      </c>
+      <c r="P17">
+        <v>26466</v>
+      </c>
+      <c r="Q17">
+        <v>17049</v>
+      </c>
+      <c r="R17">
+        <v>23643</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Humanitarian Transportation</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>463</v>
-      </c>
-      <c r="D18">
-        <v>463</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10228</v>
       </c>
       <c r="I18">
-        <v>82</v>
+        <v>10045</v>
       </c>
       <c r="J18">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L18">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1034</v>
+      </c>
+      <c r="O18">
+        <v>1064</v>
+      </c>
+      <c r="P18">
+        <v>3658</v>
+      </c>
+      <c r="Q18">
+        <v>4472</v>
+      </c>
+      <c r="R18">
+        <v>1202</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>1724</v>
-      </c>
-      <c r="D19">
-        <v>1566</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
       </c>
       <c r="F19">
-        <v>158</v>
+        <v>8281</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>15786</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1098</v>
+        <v>55</v>
       </c>
       <c r="L19">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>958</v>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2984</v>
+      </c>
+      <c r="O19">
+        <v>3138</v>
+      </c>
+      <c r="P19">
+        <v>4502</v>
+      </c>
+      <c r="Q19">
+        <v>5160</v>
+      </c>
+      <c r="R19">
+        <v>567</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Multipurpose CBI</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>11749</v>
-      </c>
-      <c r="D20">
-        <v>11497</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Protection (Human Trafficking &amp; Smuggling)</t>
+        </is>
       </c>
       <c r="F20">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>2694</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>2839</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4110</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2106</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11749</v>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nutrition</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Protection (General)</t>
+        </is>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>18530</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>38437</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>38437</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4030</v>
+      </c>
+      <c r="O21">
+        <v>3951</v>
+      </c>
+      <c r="P21">
+        <v>19339</v>
+      </c>
+      <c r="Q21">
+        <v>11049</v>
+      </c>
+      <c r="R21">
+        <v>294</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Protection (Child Protection)</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>2915</v>
-      </c>
-      <c r="D22">
-        <v>2785</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Protection (GBV)</t>
+        </is>
       </c>
       <c r="F22">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1333,571 +1868,995 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1679</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Check Population Type breakdown</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Protection (GBV)</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Protection (Child Protection)</t>
+        </is>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2915</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6623</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L23">
         <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3769</v>
+      </c>
+      <c r="O23">
+        <v>3463</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Protection (General)</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>18530</v>
-      </c>
-      <c r="D24">
-        <v>18530</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24">
-        <v>1934</v>
+        <v>13</v>
       </c>
       <c r="J24">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>9276</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>5391</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Protection (Human Trafficking &amp; Smuggling)</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>16541</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>16541</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>23024</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22233</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>791</v>
       </c>
       <c r="L25">
         <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5278</v>
+      </c>
+      <c r="O25">
+        <v>5422</v>
+      </c>
+      <c r="P25">
+        <v>8111</v>
+      </c>
+      <c r="Q25">
+        <v>4213</v>
+      </c>
+      <c r="R25">
+        <v>23024</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shelter</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>7608</v>
-      </c>
-      <c r="D26">
-        <v>7583</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>1724</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3491</v>
       </c>
       <c r="I26">
-        <v>1512</v>
+        <v>2824</v>
       </c>
       <c r="J26">
-        <v>1659</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2154</v>
+        <v>667</v>
       </c>
       <c r="L26">
-        <v>2281</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>419</v>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2330</v>
+      </c>
+      <c r="Q26">
+        <v>1161</v>
+      </c>
+      <c r="R26">
+        <v>1477</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>5677</v>
-      </c>
-      <c r="D27">
-        <v>5598</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
       </c>
       <c r="F27">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="I27">
-        <v>547</v>
+        <v>781</v>
       </c>
       <c r="J27">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>2502</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>907</v>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>113</v>
+      </c>
+      <c r="O27">
+        <v>147</v>
+      </c>
+      <c r="P27">
+        <v>301</v>
+      </c>
+      <c r="Q27">
+        <v>220</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>77425</v>
-      </c>
-      <c r="D28">
-        <v>74728</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
       </c>
       <c r="F28">
-        <v>2490</v>
+        <v>10057</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>21021</v>
       </c>
       <c r="I28">
-        <v>13229</v>
+        <v>15397</v>
       </c>
       <c r="J28">
-        <v>13523</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>29268</v>
+        <v>5624</v>
       </c>
       <c r="L28">
-        <v>21405</v>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1990</v>
+      </c>
+      <c r="O28">
+        <v>1615</v>
+      </c>
+      <c r="P28">
+        <v>11056</v>
+      </c>
+      <c r="Q28">
+        <v>6322</v>
+      </c>
+      <c r="R28">
+        <v>1794</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>306</v>
-      </c>
-      <c r="D29">
-        <v>161</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
       </c>
       <c r="F29">
-        <v>145</v>
+        <v>50070</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>45610</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>31935</v>
       </c>
       <c r="I29">
-        <v>154</v>
+        <v>30989</v>
       </c>
       <c r="J29">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>946</v>
       </c>
       <c r="L29">
         <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>5656</v>
+      </c>
+      <c r="O29">
+        <v>5804</v>
+      </c>
+      <c r="P29">
+        <v>10085</v>
+      </c>
+      <c r="Q29">
+        <v>10390</v>
+      </c>
+      <c r="R29">
+        <v>22807</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Food Security</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>12752</v>
-      </c>
-      <c r="D30">
-        <v>12698</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
       </c>
       <c r="F30">
-        <v>54</v>
+        <v>6795</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5555</v>
       </c>
       <c r="I30">
-        <v>2658</v>
+        <v>5065</v>
       </c>
       <c r="J30">
-        <v>2632</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3864</v>
+        <v>490</v>
       </c>
       <c r="L30">
-        <v>3598</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>12652</v>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2384</v>
+      </c>
+      <c r="O30">
+        <v>2341</v>
+      </c>
+      <c r="P30">
+        <v>416</v>
+      </c>
+      <c r="Q30">
+        <v>414</v>
+      </c>
+      <c r="R30">
+        <v>18</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>586</v>
-      </c>
-      <c r="D31">
-        <v>495</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Country level</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
       </c>
       <c r="F31">
-        <v>91</v>
+        <v>121069</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>65526</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>123463</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>114945</v>
       </c>
       <c r="J31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>470</v>
+        <v>8518</v>
       </c>
       <c r="L31">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>19338</v>
+      </c>
+      <c r="O31">
+        <v>19133</v>
+      </c>
+      <c r="P31">
+        <v>51337</v>
+      </c>
+      <c r="Q31">
+        <v>33549</v>
+      </c>
+      <c r="R31">
+        <v>49414</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>1690</v>
-      </c>
-      <c r="D32">
-        <v>1447</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
       </c>
       <c r="F32">
-        <v>243</v>
+        <v>1037</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>11265</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>11082</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1246</v>
+        <v>183</v>
       </c>
       <c r="L32">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>813</v>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1044</v>
+      </c>
+      <c r="O32">
+        <v>1071</v>
+      </c>
+      <c r="P32">
+        <v>4168</v>
+      </c>
+      <c r="Q32">
+        <v>4982</v>
+      </c>
+      <c r="R32">
+        <v>1202</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Multipurpose CBI</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>9769</v>
-      </c>
-      <c r="D33">
-        <v>9769</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3671</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>19457</v>
       </c>
       <c r="I33">
-        <v>2576</v>
+        <v>19401</v>
       </c>
       <c r="J33">
-        <v>2502</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3024</v>
+        <v>56</v>
       </c>
       <c r="L33">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>9769</v>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>4553</v>
+      </c>
+      <c r="O33">
+        <v>4706</v>
+      </c>
+      <c r="P33">
+        <v>4779</v>
+      </c>
+      <c r="Q33">
+        <v>5417</v>
+      </c>
+      <c r="R33">
+        <v>567</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Protection (Child Protection)</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>3718</v>
-      </c>
-      <c r="D34">
-        <v>3357</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Protection (Human Trafficking &amp; Smuggling)</t>
+        </is>
       </c>
       <c r="F34">
-        <v>361</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>1946</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>1772</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Protection (GBV)</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Protection (General)</t>
+        </is>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>16524</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>54961</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>54961</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1907,27 +2866,61 @@
       </c>
       <c r="L35">
         <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>6366</v>
+      </c>
+      <c r="O35">
+        <v>6260</v>
+      </c>
+      <c r="P35">
+        <v>26995</v>
+      </c>
+      <c r="Q35">
+        <v>15272</v>
+      </c>
+      <c r="R35">
+        <v>372</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Protection (General)</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>16524</v>
-      </c>
-      <c r="D36">
-        <v>16524</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Protection (GBV)</t>
+        </is>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1939,187 +2932,1645 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2336</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2309</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>7656</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>4223</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Check Population Type breakdown</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Protection (Human Trafficking &amp; Smuggling)</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Protection (Child Protection)</t>
+        </is>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3718</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>10341</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="L37">
         <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>5715</v>
+      </c>
+      <c r="O37">
+        <v>5235</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shelter</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>3671</v>
-      </c>
-      <c r="D38">
-        <v>3670</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1569</v>
-      </c>
-      <c r="J38">
-        <v>1568</v>
-      </c>
-      <c r="K38">
-        <v>277</v>
-      </c>
-      <c r="L38">
-        <v>257</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>1037</v>
-      </c>
-      <c r="D39">
-        <v>1037</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>19745</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>19745</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>32793</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>32002</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>510</v>
+        <v>791</v>
       </c>
       <c r="L39">
-        <v>510</v>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>7854</v>
+      </c>
+      <c r="O39">
+        <v>7924</v>
+      </c>
+      <c r="P39">
+        <v>11135</v>
+      </c>
+      <c r="Q39">
+        <v>5880</v>
+      </c>
+      <c r="R39">
+        <v>32793</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>1690</v>
+      </c>
+      <c r="G40">
+        <v>813</v>
+      </c>
+      <c r="H40">
+        <v>5181</v>
+      </c>
+      <c r="I40">
+        <v>4271</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>910</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>3576</v>
+      </c>
+      <c r="Q40">
+        <v>1605</v>
+      </c>
+      <c r="R40">
+        <v>2290</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>586</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>21607</v>
+      </c>
+      <c r="I42">
+        <v>15892</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>5715</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2010</v>
+      </c>
+      <c r="O42">
+        <v>1640</v>
+      </c>
+      <c r="P42">
+        <v>11526</v>
+      </c>
+      <c r="Q42">
+        <v>6393</v>
+      </c>
+      <c r="R42">
+        <v>1794</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>46413</v>
+      </c>
+      <c r="G43">
+        <v>46313</v>
+      </c>
+      <c r="H43">
+        <v>44687</v>
+      </c>
+      <c r="I43">
+        <v>43687</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1000</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>8314</v>
+      </c>
+      <c r="O43">
+        <v>8436</v>
+      </c>
+      <c r="P43">
+        <v>13949</v>
+      </c>
+      <c r="Q43">
+        <v>13988</v>
+      </c>
+      <c r="R43">
+        <v>35459</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>306</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>5861</v>
+      </c>
+      <c r="I44">
+        <v>5226</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>635</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2538</v>
+      </c>
+      <c r="O44">
+        <v>2492</v>
+      </c>
+      <c r="P44">
+        <v>417</v>
+      </c>
+      <c r="Q44">
+        <v>414</v>
+      </c>
+      <c r="R44">
+        <v>18</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Country level</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="C40">
-        <v>50054</v>
-      </c>
-      <c r="D40">
-        <v>49159</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>895</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>11269</v>
-      </c>
-      <c r="J40">
-        <v>10966</v>
-      </c>
-      <c r="K40">
-        <v>17049</v>
-      </c>
-      <c r="L40">
-        <v>10770</v>
+      <c r="F45">
+        <v>93691</v>
+      </c>
+      <c r="G45">
+        <v>66949</v>
+      </c>
+      <c r="H45">
+        <v>165090</v>
+      </c>
+      <c r="I45">
+        <v>156039</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>9051</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>27082</v>
+      </c>
+      <c r="O45">
+        <v>26752</v>
+      </c>
+      <c r="P45">
+        <v>67598</v>
+      </c>
+      <c r="Q45">
+        <v>43552</v>
+      </c>
+      <c r="R45">
+        <v>72726</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>11941</v>
+      </c>
+      <c r="G46">
+        <v>253</v>
+      </c>
+      <c r="H46">
+        <v>23206</v>
+      </c>
+      <c r="I46">
+        <v>22879</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>327</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2972</v>
+      </c>
+      <c r="O46">
+        <v>3012</v>
+      </c>
+      <c r="P46">
+        <v>8181</v>
+      </c>
+      <c r="Q46">
+        <v>9041</v>
+      </c>
+      <c r="R46">
+        <v>1455</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>15264</v>
+      </c>
+      <c r="G47">
+        <v>1300</v>
+      </c>
+      <c r="H47">
+        <v>33834</v>
+      </c>
+      <c r="I47">
+        <v>32811</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1023</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>7773</v>
+      </c>
+      <c r="O47">
+        <v>7186</v>
+      </c>
+      <c r="P47">
+        <v>9132</v>
+      </c>
+      <c r="Q47">
+        <v>9682</v>
+      </c>
+      <c r="R47">
+        <v>1867</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Protection (Human Trafficking &amp; Smuggling)</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>32</v>
+      </c>
+      <c r="I48">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Protection (General)</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>20176</v>
+      </c>
+      <c r="G49">
+        <v>545</v>
+      </c>
+      <c r="H49">
+        <v>75137</v>
+      </c>
+      <c r="I49">
+        <v>75137</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>8440</v>
+      </c>
+      <c r="O49">
+        <v>8266</v>
+      </c>
+      <c r="P49">
+        <v>37309</v>
+      </c>
+      <c r="Q49">
+        <v>20986</v>
+      </c>
+      <c r="R49">
+        <v>917</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Protection (GBV)</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Check Population Type breakdown</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Protection (Child Protection)</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>5279</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <v>15620</v>
+      </c>
+      <c r="I51">
+        <v>14884</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>736</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>8447</v>
+      </c>
+      <c r="O51">
+        <v>7890</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>25</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Multipurpose CBI</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>20009</v>
+      </c>
+      <c r="G53">
+        <v>20009</v>
+      </c>
+      <c r="H53">
+        <v>41858</v>
+      </c>
+      <c r="I53">
+        <v>40920</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>938</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>9950</v>
+      </c>
+      <c r="O53">
+        <v>10015</v>
+      </c>
+      <c r="P53">
+        <v>14321</v>
+      </c>
+      <c r="Q53">
+        <v>7572</v>
+      </c>
+      <c r="R53">
+        <v>41858</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>3762</v>
+      </c>
+      <c r="G54">
+        <v>762</v>
+      </c>
+      <c r="H54">
+        <v>8943</v>
+      </c>
+      <c r="I54">
+        <v>6859</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>2084</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>6735</v>
+      </c>
+      <c r="Q54">
+        <v>2198</v>
+      </c>
+      <c r="R54">
+        <v>3052</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Humanitarian Transportation</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>322</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1103</v>
+      </c>
+      <c r="I55">
+        <v>1103</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>163</v>
+      </c>
+      <c r="O55">
+        <v>192</v>
+      </c>
+      <c r="P55">
+        <v>427</v>
+      </c>
+      <c r="Q55">
+        <v>321</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>9142</v>
+      </c>
+      <c r="G56">
+        <v>759</v>
+      </c>
+      <c r="H56">
+        <v>30749</v>
+      </c>
+      <c r="I56">
+        <v>23584</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>7165</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2896</v>
+      </c>
+      <c r="O56">
+        <v>2504</v>
+      </c>
+      <c r="P56">
+        <v>15826</v>
+      </c>
+      <c r="Q56">
+        <v>9480</v>
+      </c>
+      <c r="R56">
+        <v>2553</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Food Security</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>53545</v>
+      </c>
+      <c r="G57">
+        <v>50739</v>
+      </c>
+      <c r="H57">
+        <v>61752</v>
+      </c>
+      <c r="I57">
+        <v>60540</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1212</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>11765</v>
+      </c>
+      <c r="O57">
+        <v>11988</v>
+      </c>
+      <c r="P57">
+        <v>19059</v>
+      </c>
+      <c r="Q57">
+        <v>18940</v>
+      </c>
+      <c r="R57">
+        <v>49718</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>6707</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>10762</v>
+      </c>
+      <c r="I58">
+        <v>10127</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>635</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4913</v>
+      </c>
+      <c r="O58">
+        <v>4666</v>
+      </c>
+      <c r="P58">
+        <v>722</v>
+      </c>
+      <c r="Q58">
+        <v>461</v>
+      </c>
+      <c r="R58">
+        <v>18</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Country level</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>146172</v>
+      </c>
+      <c r="G59">
+        <v>74392</v>
+      </c>
+      <c r="H59">
+        <v>229201</v>
+      </c>
+      <c r="I59">
+        <v>217167</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>12034</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>37964</v>
+      </c>
+      <c r="O59">
+        <v>37439</v>
+      </c>
+      <c r="P59">
+        <v>93972</v>
+      </c>
+      <c r="Q59">
+        <v>59637</v>
+      </c>
+      <c r="R59">
+        <v>98116</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Check AGD breakdown</t>
+        </is>
       </c>
     </row>
   </sheetData>
